--- a/ref/ingestion/calibrated/mexico/model_input_variables_mexico_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/mexico/model_input_variables_mexico_ip_calibrated.xlsx
@@ -870,10 +870,10 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -1001,10 +1001,10 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -1132,10 +1132,10 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -1263,10 +1263,10 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1394,10 +1394,10 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -1525,10 +1525,10 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -1656,10 +1656,10 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1787,10 +1787,10 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1918,10 +1918,10 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -2049,10 +2049,10 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -2180,10 +2180,10 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -2311,10 +2311,10 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -2442,10 +2442,10 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -2573,10 +2573,10 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -2704,10 +2704,10 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -2835,10 +2835,10 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -2966,10 +2966,10 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -3097,10 +3097,10 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -3228,10 +3228,10 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -3359,10 +3359,10 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -3490,10 +3490,10 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -3883,10 +3883,10 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -4014,10 +4014,10 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>0.2419349399469846</v>
@@ -4276,10 +4276,10 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0.1517300828916628</v>
@@ -4407,10 +4407,10 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0.1517300828916628</v>
@@ -4800,10 +4800,10 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -4931,10 +4931,10 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -5062,10 +5062,10 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -5193,10 +5193,10 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>0.1250383095969163</v>
@@ -5324,10 +5324,10 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>0.1250383095969163</v>
@@ -5455,10 +5455,10 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -5586,10 +5586,10 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -5848,10 +5848,10 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -6110,10 +6110,10 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>2e-06</v>
@@ -6241,10 +6241,10 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>4e-08</v>
@@ -6372,10 +6372,10 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>0.0051957989188632</v>
@@ -6765,10 +6765,10 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>6e-07</v>
@@ -6896,10 +6896,10 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
         <v>0.0027178452122144</v>
@@ -7027,10 +7027,10 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -7420,10 +7420,10 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -7551,10 +7551,10 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -7813,10 +7813,10 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>0.0987102346254813</v>
@@ -8337,10 +8337,10 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>1.367824344547162e-05</v>
@@ -8861,10 +8861,10 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -8992,10 +8992,10 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -9385,10 +9385,10 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
         <v>0.00116</v>
@@ -9516,10 +9516,10 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>0.0001735714285714</v>
@@ -9647,10 +9647,10 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>0.00396543</v>
@@ -9778,10 +9778,10 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>1.238889640897122</v>
@@ -9909,10 +9909,10 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
         <v>1.238889640897122</v>
@@ -10302,10 +10302,10 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -10433,10 +10433,10 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -10564,10 +10564,10 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
         <v>2.465420459664596e-05</v>
@@ -10695,10 +10695,10 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -10826,10 +10826,10 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
         <v>3.15</v>
@@ -10957,10 +10957,10 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
         <v>3.08</v>
@@ -11088,10 +11088,10 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
         <v>0.52</v>
@@ -11219,10 +11219,10 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>0.848907407407407</v>
@@ -11350,10 +11350,10 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>0.2</v>
@@ -11481,10 +11481,10 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
         <v>0.75</v>
@@ -11612,10 +11612,10 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
         <v>1.86673809523809</v>
@@ -11743,10 +11743,10 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
         <v>1.43807229</v>
@@ -11874,10 +11874,10 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -12005,10 +12005,10 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
         <v>0.03741</v>
@@ -12136,10 +12136,10 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
         <v>0.0007</v>
@@ -12398,10 +12398,10 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -12529,10 +12529,10 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
         <v>0.0002643668045571</v>
@@ -12660,10 +12660,10 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -12791,10 +12791,10 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
         <v>3.66332176734634e-08</v>
@@ -12922,10 +12922,10 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
         <v>1.403871397509159e-07</v>
@@ -13053,10 +13053,10 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
         <v>4.515407073673774</v>
@@ -13184,10 +13184,10 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
         <v>-16.62310308336624</v>
@@ -13315,10 +13315,10 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
         <v>-11.13462152122199</v>
@@ -13446,10 +13446,10 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>-9.302374590138838</v>
@@ -13577,10 +13577,10 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
         <v>60.65984862341264</v>
@@ -13708,10 +13708,10 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
         <v>-7.780562490052226</v>
@@ -13970,10 +13970,10 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
         <v>-14.14160879287419</v>
@@ -14101,10 +14101,10 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
         <v>-8.853718966218983</v>
@@ -14232,10 +14232,10 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
         <v>0.01</v>
@@ -14363,10 +14363,10 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
         <v>0.01</v>
@@ -14494,10 +14494,10 @@
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
         <v>0.01</v>
@@ -14625,10 +14625,10 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
         <v>0.01</v>
@@ -14756,10 +14756,10 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
         <v>-16.50979538984014</v>
@@ -14887,10 +14887,10 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
         <v>-10.82833845377075</v>
@@ -15149,10 +15149,10 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -15280,10 +15280,10 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
         <v>0.75</v>
@@ -16334,112 +16334,112 @@
         <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="K122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="L122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="M122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="N122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="O122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="P122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="R122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="S122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="T122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="U122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="W122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="X122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="Z122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AA122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AB122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AC122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AE122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AF122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AG122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AH122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AI122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AJ122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AK122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AL122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AM122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AN122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AO122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AP122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AR122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="123">
@@ -16465,112 +16465,112 @@
         <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="K123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="M123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="O123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="P123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="R123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="S123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="T123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="U123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="W123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="X123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="Z123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AA123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AB123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AC123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AE123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AF123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AG123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AH123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AI123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AJ123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AK123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AL123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AM123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AN123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AO123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AR123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="124">
@@ -16596,112 +16596,112 @@
         <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="K124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="M124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="O124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="P124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="R124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="S124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="T124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="U124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="W124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="X124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="Z124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AA124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AB124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AC124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AE124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AF124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AG124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AH124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AI124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AJ124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AK124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AL124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AM124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AN124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AO124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AR124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="125">
@@ -16727,112 +16727,112 @@
         <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="K125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="L125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="M125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="N125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="O125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="P125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="R125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="S125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="T125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="U125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="V125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="W125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="X125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="Z125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AA125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AB125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AC125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AD125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AE125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AF125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AG125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AH125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AI125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AJ125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AK125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AL125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AM125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AN125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AO125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AP125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AR125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="126">
@@ -16858,112 +16858,112 @@
         <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="K126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="L126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="M126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="N126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="O126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="P126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="R126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="S126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="T126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="U126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="W126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="X126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="Z126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AA126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AB126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AC126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AE126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AF126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AG126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AH126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AI126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AJ126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AK126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AL126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AM126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AN126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AO126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AP126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AR126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="127">
@@ -16983,10 +16983,10 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
         <v>0.8</v>
@@ -17114,10 +17114,10 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>1.333</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
         <v>0.6</v>
@@ -17245,10 +17245,10 @@
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
         <v>0.9</v>
@@ -17376,10 +17376,10 @@
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>1.333</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
         <v>0.45</v>
@@ -17507,10 +17507,10 @@
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -19996,10 +19996,10 @@
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
         <v>0.9</v>
@@ -20127,10 +20127,10 @@
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
         <v>1.2</v>
@@ -20258,10 +20258,10 @@
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
         <v>0.01</v>
@@ -20389,10 +20389,10 @@
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -20520,10 +20520,10 @@
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -20651,10 +20651,10 @@
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -20782,10 +20782,10 @@
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
         <v>0.6</v>
@@ -20913,10 +20913,10 @@
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
         <v>6</v>
@@ -21044,10 +21044,10 @@
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -21175,10 +21175,10 @@
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -21306,10 +21306,10 @@
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -21437,10 +21437,10 @@
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -21568,10 +21568,10 @@
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J162" t="n">
         <v>0.1</v>
@@ -21699,10 +21699,10 @@
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
         <v>2</v>
@@ -21830,10 +21830,10 @@
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
         <v>4</v>
@@ -22485,10 +22485,10 @@
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J169" t="n">
         <v>5</v>
@@ -22616,10 +22616,10 @@
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J170" t="n">
         <v>4.5</v>
@@ -22747,10 +22747,10 @@
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J171" t="n">
         <v>25</v>
@@ -22878,10 +22878,10 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J172" t="n">
         <v>2</v>
@@ -23009,10 +23009,10 @@
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
         <v>1</v>
@@ -23140,10 +23140,10 @@
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J174" t="n">
         <v>4</v>
@@ -23271,10 +23271,10 @@
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
         <v>25</v>
@@ -23402,10 +23402,10 @@
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
         <v>5</v>
@@ -23533,10 +23533,10 @@
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
         <v>19</v>
@@ -23664,10 +23664,10 @@
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
         <v>25</v>
@@ -23795,10 +23795,10 @@
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J179" t="n">
         <v>2</v>
@@ -23926,10 +23926,10 @@
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J180" t="n">
         <v>3.4</v>
@@ -24057,10 +24057,10 @@
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J181" t="n">
         <v>3</v>
@@ -24188,10 +24188,10 @@
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J182" t="n">
         <v>4</v>
@@ -24319,10 +24319,10 @@
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J183" t="n">
         <v>16</v>
@@ -24450,10 +24450,10 @@
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
         <v>16</v>
@@ -24581,10 +24581,10 @@
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
         <v>25</v>
@@ -24712,10 +24712,10 @@
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
         <v>25</v>
@@ -25148,10 +25148,10 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0.75</v>
@@ -25453,10 +25453,10 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -25584,10 +25584,10 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -25715,10 +25715,10 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -25846,10 +25846,10 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -25977,10 +25977,10 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -26108,10 +26108,10 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -26239,10 +26239,10 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -26370,10 +26370,10 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -26501,10 +26501,10 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -26632,10 +26632,10 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -26763,10 +26763,10 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -26894,10 +26894,10 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -27025,10 +27025,10 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -27156,10 +27156,10 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -27287,10 +27287,10 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -27418,10 +27418,10 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -27549,10 +27549,10 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -27680,10 +27680,10 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -27811,10 +27811,10 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -27942,10 +27942,10 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -28073,10 +28073,10 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0.2419349399469846</v>
@@ -28204,10 +28204,10 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0.1517300828916628</v>
@@ -28335,10 +28335,10 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0.1517300828916628</v>
@@ -28466,10 +28466,10 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0.1250383095969163</v>
@@ -28597,10 +28597,10 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0.1250383095969163</v>
@@ -28728,10 +28728,10 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>2e-06</v>
@@ -28859,10 +28859,10 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>4e-08</v>
@@ -28990,10 +28990,10 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0.0051957989188632</v>
@@ -29121,10 +29121,10 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>6e-07</v>
@@ -29252,10 +29252,10 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0.0027178452122144</v>
@@ -29383,10 +29383,10 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>0.0987102346254813</v>
@@ -29514,10 +29514,10 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>1.367824344547162e-05</v>
@@ -29645,10 +29645,10 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>1.238889640897122</v>
@@ -29776,10 +29776,10 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>1.238889640897122</v>
@@ -29907,10 +29907,10 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>2.465420459664596e-05</v>
@@ -30038,10 +30038,10 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -30169,10 +30169,10 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>0.03741</v>
@@ -30300,10 +30300,10 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0.0007</v>
@@ -30431,10 +30431,10 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0.0002643668045571</v>
@@ -30562,10 +30562,10 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>3.66332176734634e-08</v>
@@ -30693,10 +30693,10 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>1.403871397509159e-07</v>
@@ -31522,10 +31522,10 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -31653,10 +31653,10 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -31784,10 +31784,10 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -31915,10 +31915,10 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -32046,10 +32046,10 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -32177,10 +32177,10 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -32308,10 +32308,10 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -32439,10 +32439,10 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -32570,10 +32570,10 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -32701,10 +32701,10 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -32832,10 +32832,10 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -32963,10 +32963,10 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -33094,10 +33094,10 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -33225,10 +33225,10 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -33356,10 +33356,10 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -33487,10 +33487,10 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -33618,10 +33618,10 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -33749,10 +33749,10 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -33880,10 +33880,10 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -34011,10 +34011,10 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -34142,10 +34142,10 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0.2419349399469846</v>
@@ -34273,10 +34273,10 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0.1517300828916628</v>
@@ -34404,10 +34404,10 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0.1517300828916628</v>
@@ -34535,10 +34535,10 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0.1250383095969163</v>
@@ -34666,10 +34666,10 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0.1250383095969163</v>
@@ -34797,10 +34797,10 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>2e-06</v>
@@ -34928,10 +34928,10 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>4e-08</v>
@@ -35059,10 +35059,10 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0.0051957989188632</v>
@@ -35190,10 +35190,10 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>6e-07</v>
@@ -35321,10 +35321,10 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0.0027178452122144</v>
@@ -35452,10 +35452,10 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>0.0987102346254813</v>
@@ -35583,10 +35583,10 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>1.367824344547162e-05</v>
@@ -35714,10 +35714,10 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>1.238889640897122</v>
@@ -35845,10 +35845,10 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>1.238889640897122</v>
@@ -35976,10 +35976,10 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>2.465420459664596e-05</v>
@@ -36107,10 +36107,10 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -36238,10 +36238,10 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>0.03741</v>
@@ -36369,10 +36369,10 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0.0007</v>
@@ -36500,10 +36500,10 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0.0002643668045571</v>
@@ -36631,10 +36631,10 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>3.66332176734634e-08</v>
@@ -36762,10 +36762,10 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>1.403871397509159e-07</v>
@@ -36893,10 +36893,10 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>0.75</v>

--- a/ref/ingestion/calibrated/mexico/model_input_variables_mexico_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/mexico/model_input_variables_mexico_ip_calibrated.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="strategy_id-0" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="strategy_id-5001" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="strategy_id-5006" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="strategy_id-5008" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="strategy_id-5007" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="strategy_id-5009" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37534,4 +37535,6204 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AS47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>subsector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>normalize_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>trajgroup_no_vary_q</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>uniform_scaling_q</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>variable_trajectory_group</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>variable_trajectory_group_trajectory_type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>max_35</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>min_35</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_cement</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_chemicals</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_construction_and_demolition</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_electronics</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_glass</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_lime_and_carbonite</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_metals</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_mining</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_other_industries</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_other_product_manufacturing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_paper</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_plastic</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_product_use_lubricants</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_product_use_ods_other</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_product_use_ods_refrigeration</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_product_use_other</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_product_use_paraffin_wax</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_rubber_and_leather</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_textiles</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>demscalar_ippu_wood</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_c2h3f3_per_mmm_gdp_product_use_ods_refrigeration</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2419349399469846</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2538095874853696</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.270041013502411</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.2873224540010896</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.2854896403922479</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.2836800613988605</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.2736801732450857</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.2736801732450857</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.2736801732450857</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.2736801732450857</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.2736801732450857</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.2638276870082626</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.2539752007714395</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.2441227145346165</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.2342702282977933</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.2244177420609703</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.2145652558241472</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2047127695873241</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.194860283350501</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.1850077971136779</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.1751553108768548</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.1653028246400318</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.1554503384032087</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.1455978521663856</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.1357453659295625</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.1258928796927394</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.1160403934559163</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.1061879072190932</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.09633542098227017</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.08648293474544708</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.07663044850862399</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.06677796227180091</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.05692547603497783</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.04707298979815473</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.03722050356133166</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.02736801732450857</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_c2hf5_per_mmm_gdp_product_use_ods_other</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.1517300828916628</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1647708364680821</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.1818289632623795</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.2005613969298149</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.1992820271743976</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.1980188760154309</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.1871797063119118</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.1871797063119118</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.1871797063119118</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.1871797063119118</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.1871797063119118</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.180441236884683</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.1737027674574542</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.1669642980302253</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.1602258286029965</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.1534873591757677</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.1467488897485389</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.14001042032131</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.1332719508940812</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.1265334814668524</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.1197950120396236</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.1130565426123947</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.1063180731851659</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.09957960375793706</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.09284113433070824</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.08610266490347943</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.07936419547625059</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.07262572604902177</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.06588725662179296</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.05914878719456412</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.0524103177673353</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.04567184834010649</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.03893337891287765</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.03219490948564882</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.02545644005842001</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.01871797063119118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_c2hf5_per_mmm_gdp_product_use_ods_refrigeration</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.1517300828916628</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1647708364680821</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.1818289632623795</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.2005613969298149</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.1992820271743976</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.1980188760154309</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.1871797063119118</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.1871797063119118</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.1871797063119118</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.1871797063119118</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.1871797063119118</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.180441236884683</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.1737027674574542</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.1669642980302253</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.1602258286029965</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.1534873591757677</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.1467488897485389</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.14001042032131</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.1332719508940812</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.1265334814668524</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.1197950120396236</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.1130565426123947</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.1063180731851659</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.09957960375793706</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.09284113433070824</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.08610266490347943</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.07936419547625059</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.07262572604902177</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.06588725662179296</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.05914878719456412</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0.0524103177673353</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.04567184834010649</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0.03893337891287765</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.03219490948564882</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.02545644005842001</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.01871797063119118</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_c3h3f5_per_mmm_gdp_product_use_ods_other</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.1250383095969163</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1517819671319165</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.1459776758184085</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.1450405144192787</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.1441153092187828</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.1432018328634603</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.141458863809828</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.141458863809828</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.141458863809828</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.141458863809828</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.141458863809828</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.1363663447126742</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.1312738256155204</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.1261813065183666</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.1210887874212128</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.115996268324059</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.1109037492269052</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.1058112301297513</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.1007187110325975</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.09562619193544372</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.09053367283828992</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.08544115374113612</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.08034863464398231</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.07525611554682848</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.07016359644967468</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.06507107735252088</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.05997855825536708</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.05488603915821326</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.04979352006105946</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.04470100096390565</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.03960848186675184</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.03451596276959804</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.02942344367244422</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.02433092457529041</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.01923840547813661</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.0141458863809828</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_c3h3f5_per_mmm_gdp_product_use_ods_refrigeration</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.1250383095969163</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1517819671319165</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1459776758184085</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1450405144192787</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1441153092187828</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1432018328634603</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.141458863809828</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.141458863809828</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.141458863809828</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.141458863809828</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.141458863809828</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1363663447126742</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1312738256155204</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1261813065183666</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1210887874212128</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.115996268324059</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1109037492269052</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1058112301297513</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.1007187110325975</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.09562619193544372</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.09053367283828992</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.08544115374113612</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.08034863464398231</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.07525611554682848</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.07016359644967468</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.06507107735252088</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.05997855825536708</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.05488603915821326</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.04979352006105946</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.04470100096390565</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.03960848186675184</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.03451596276959804</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.02942344367244422</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.02433092457529041</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.01923840547813661</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.0141458863809828</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_c4f6_per_tonne_production_electronics</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2e-06</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2e-06</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2e-06</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2e-06</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2e-06</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2e-06</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2e-06</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2e-06</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2e-06</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2e-06</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2e-06</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.928e-06</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.856e-06</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.784e-06</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.712e-06</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.64e-06</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.568e-06</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1.496e-06</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.424e-06</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.352e-06</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1.28e-06</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.208e-06</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.136e-06</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1.064e-06</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>9.919999999999998e-07</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>9.2e-07</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>8.48e-07</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>7.759999999999999e-07</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>7.040000000000001e-07</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>6.319999999999999e-07</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>5.599999999999999e-07</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>4.88e-07</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>4.16e-07</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>3.439999999999999e-07</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>2.720000000000001e-07</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2e-07</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_c4f8o_per_tonne_production_electronics</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4e-08</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4e-08</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4e-08</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4e-08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4e-08</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4e-08</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4e-08</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4e-08</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4e-08</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4e-08</v>
+      </c>
+      <c r="T28" t="n">
+        <v>4e-08</v>
+      </c>
+      <c r="U28" t="n">
+        <v>3.856e-08</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.712e-08</v>
+      </c>
+      <c r="W28" t="n">
+        <v>3.568000000000001e-08</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3.423999999999999e-08</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3.28e-08</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>3.136e-08</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2.992e-08</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>2.848e-08</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2.704e-08</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2.56e-08</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2.416e-08</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>2.272e-08</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>2.128e-08</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.984e-08</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1.84e-08</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.696e-08</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.552e-08</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.408e-08</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.264e-08</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.12e-08</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>9.760000000000001e-09</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>8.320000000000001e-09</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>6.879999999999999e-09</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>5.440000000000001e-09</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>4e-09</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_c4h5f5_per_mmm_gdp_product_use_ods_other</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.0051957989188632</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.011913104725026</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0228550686379186</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0340436035374907</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0338264413248316</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.033612032081966</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.0281645964199045</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.0281645964199045</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.0281645964199045</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.0281645964199045</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0281645964199045</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.02715067094878794</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.02613674547767138</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.02512282000655482</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.02410889453543825</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.02309496906432169</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.02208104359320513</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.02106711812208856</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.020053192650972</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.01903926717985544</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.01802534170873888</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.01701141623762232</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.01599749076650575</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.01498356529538919</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.01396963982427263</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.01295571435315607</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.01194178888203951</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.01092786341092294</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0.009913937939806385</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.008900012468689822</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0.007886086997573259</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.006872161526456699</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0.005858236055340136</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.004844310584223573</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0.003830385113107013</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0.00281645964199045</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_c5f8_per_tonne_production_electronics</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>6e-07</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6e-07</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6e-07</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6e-07</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6e-07</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6e-07</v>
+      </c>
+      <c r="P30" t="n">
+        <v>6e-07</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>6e-07</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6e-07</v>
+      </c>
+      <c r="S30" t="n">
+        <v>6e-07</v>
+      </c>
+      <c r="T30" t="n">
+        <v>6e-07</v>
+      </c>
+      <c r="U30" t="n">
+        <v>5.783999999999999e-07</v>
+      </c>
+      <c r="V30" t="n">
+        <v>5.568e-07</v>
+      </c>
+      <c r="W30" t="n">
+        <v>5.352e-07</v>
+      </c>
+      <c r="X30" t="n">
+        <v>5.135999999999999e-07</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>4.919999999999999e-07</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>4.704e-07</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>4.487999999999999e-07</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>4.272e-07</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>4.056e-07</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>3.84e-07</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>3.624e-07</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>3.408e-07</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>3.192e-07</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>2.976e-07</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>2.76e-07</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>2.543999999999999e-07</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>2.328e-07</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>2.112e-07</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1.896e-07</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1.68e-07</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.464e-07</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1.248e-07</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>1.032e-07</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>8.160000000000002e-08</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>5.999999999999999e-08</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_c5h2f10_per_mmm_gdp_product_use_ods_other</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0027178452122144</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0064149360064831</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.0050044652335194</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0039042817369571</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0038793765455924</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0038547870778461</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.0041870063865345</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0041870063865345</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0041870063865345</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0041870063865345</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.0041870063865345</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.004036274156619258</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.003885541926704016</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.003734809696788774</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.003584077466873532</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.00343334523695829</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.003282613007043048</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.003131880777127806</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.002981148547212563</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.002830416317297322</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.00267968408738208</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.002528951857466838</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.002378219627551596</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.002227487397636354</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.002076755167721112</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.00192602293780587</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0.001775290707890628</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0.001624558477975386</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0.001473826248060144</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0.001323094018144902</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0.00117236178822966</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.001021629558314418</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0.0008708973283991759</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.0007201650984839338</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0.0005694328685686922</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.00041870063865345</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_ch2f2_per_mmm_gdp_product_use_ods_refrigeration</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0987102346254813</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1147055714374417</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.1350174208862865</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.1578604569511098</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.1568534740656132</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.1558592567226687</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.1426568392125264</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.1426568392125264</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.1426568392125264</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.1426568392125264</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.1426568392125264</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.1375211930008754</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.1323855467892245</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.1272499005775735</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.1221142543659226</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.1169786081542716</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.1118429619426207</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.1067073157309697</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.1015716695193188</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.09643602330766785</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.09130037709601688</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.08616473088436595</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.081029084672715</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.07589343846106404</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.07075779224941309</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.06562214603776215</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.06048649982611119</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.05535085361446024</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.0502152074028093</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.04507956119115834</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.03994391497950739</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.03480826876785644</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.02967262255620549</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.02453697634455453</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.0194013301329036</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.01426568392125264</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_ch2f2_per_tonne_production_electronics</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.367824344547162e-05</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.725653298431441e-05</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.849265676909372e-05</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.148880331684959e-05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.04462255112806e-05</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2.300672757445567e-05</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.981595580322122e-05</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.981595580322122e-05</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.981595580322122e-05</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.981595580322122e-05</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.981595580322122e-05</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.910258139430526e-05</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.838920698538929e-05</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.767583257647333e-05</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.696245816755736e-05</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.62490837586414e-05</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.553570934972544e-05</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1.482233494080947e-05</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.410896053189351e-05</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.339558612297754e-05</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1.268221171406158e-05</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.196883730514562e-05</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.125546289622965e-05</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1.054208848731369e-05</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>9.828714078397724e-06</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>9.115339669481761e-06</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>8.401965260565796e-06</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>7.688590851649831e-06</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>6.975216442733868e-06</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>6.261842033817905e-06</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>5.548467624901941e-06</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>4.835093215985978e-06</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>4.121718807070013e-06</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>3.408344398154049e-06</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>2.694969989238086e-06</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1.981595580322122e-06</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_chf2cf3_per_mmm_gdp_product_use_ods_other</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.238889640897122</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.314440155531241</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.393475524233831</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.476295732162776</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.466878525568221</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.457580701093496</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.423626227302421</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.423626227302421</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.423626227302421</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.423626227302421</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.423626227302421</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.372375683119534</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.321125138936647</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.26987459475376</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.218624050570872</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.167373506387985</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.116122962205098</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1.064872418022211</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.013621873839324</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.9623713296564367</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.9111207854735494</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.8598702412906623</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.8086196971077751</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.7573691529248879</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0.7061186087420008</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0.6548680645591137</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.6036175203762264</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.5523669761933393</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0.5011164320104522</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0.449865887827565</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0.3986153436446778</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.3473647994617908</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0.2961142552789036</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0.2448637110960163</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.1936131669131293</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0.1423626227302421</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_chf2cf3_per_mmm_gdp_product_use_ods_refrigeration</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.238889640897122</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.314440155531241</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.393475524233831</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.476295732162776</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.466878525568221</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.457580701093496</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.423626227302421</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.423626227302421</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.423626227302421</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.423626227302421</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.423626227302421</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.372375683119534</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.321125138936647</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.26987459475376</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.218624050570872</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.167373506387985</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.116122962205098</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1.064872418022211</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.013621873839324</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.9623713296564367</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.9111207854735494</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.8598702412906623</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8086196971077751</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.7573691529248879</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.7061186087420008</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.6548680645591137</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.6036175203762264</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.5523669761933393</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.5011164320104522</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.449865887827565</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.3986153436446778</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.3473647994617908</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.2961142552789036</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.2448637110960163</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.1936131669131293</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.1423626227302421</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_chf3_per_tonne_production_chemicals</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.465420459664596e-05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.77838442913907e-05</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.177395021812713e-05</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3.273916903490259e-05</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.195461215659271e-05</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3.512528518005346e-05</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.393717560549313e-05</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3.393717560549313e-05</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3.393717560549313e-05</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.393717560549313e-05</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.393717560549313e-05</v>
+      </c>
+      <c r="U36" t="n">
+        <v>3.271543728369537e-05</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.149369896189763e-05</v>
+      </c>
+      <c r="W36" t="n">
+        <v>3.027196064009987e-05</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.905022231830212e-05</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.782848399650437e-05</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>2.660674567470661e-05</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>2.538500735290886e-05</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>2.41632690311111e-05</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>2.294153070931336e-05</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>2.17197923875156e-05</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>2.049805406571785e-05</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.92763157439201e-05</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1.805457742212234e-05</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.683283910032459e-05</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1.561110077852684e-05</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.438936245672909e-05</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.316762413493133e-05</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.194588581313358e-05</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.072414749133583e-05</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>9.502409169538075e-06</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>8.280670847740325e-06</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>7.058932525942571e-06</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>5.837194204144818e-06</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>4.615455882347067e-06</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3.393717560549313e-06</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_n2o_per_mmm_gdp_other_product_manufacturing</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.6040000000000001</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.5680000000000001</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.4959999999999999</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.2440000000000001</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_n2o_per_tonne_production_chemicals</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.03741</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.03741</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.03741</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.03741</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.03741</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.03741</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.03741</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.03741</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.03741</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.03741</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.03741</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.03606324</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.03471648</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.03336972</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.03202296</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.0306762</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.02932944</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.02798268</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.02663592</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.02528916</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.0239424</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.02259564</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.02124888</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.01990212</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.01855536</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.0172086</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.01586184</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.01451508</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.01316832</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.01182156</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.0104748</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.00912804</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.00778128</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.006434519999999999</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.005087760000000001</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.003741</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_n2o_per_tonne_production_electronics</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.0006747999999999999</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.0006496000000000001</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.0006244</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.0005992</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.0005740000000000001</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.0005488</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.0005236</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.0004984</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.0004732</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.0004479999999999999</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.0004228</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.0003976</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.0003724</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.0003472</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.000322</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.0002968</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.0002716</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.0002464</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.0002212</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.000196</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.0001708</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.0001456</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.0001204</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>9.520000000000004e-05</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>7.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_sf6_per_mmm_gdp_other_product_manufacturing</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0002643668045571</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0002647330340241</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0002656792870391</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0002649107880063</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.0002650874891034</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.0002634072293537</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.0002669453528061</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.0002669453528061</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.0002669453528061</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.0002669453528061</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.0002669453528061</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.0002573353201050804</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.0002477252874040609</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.0002381152547030412</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.0002285052220020216</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.000218895189301002</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.0002092851565999824</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.0001996751238989628</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.0001900650911979432</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.0001804550584969236</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.000170845025795904</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.0001612349930948844</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.0001516249603938648</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.0001420149276928452</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.0001324048949918256</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.000122794862290806</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.0001131848295897864</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.0001035747968887668</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>9.396476418774722e-05</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>8.435473148672761e-05</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>7.4744698785708e-05</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>6.513466608468841e-05</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>5.552463338366881e-05</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>4.59146006826492e-05</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>3.630456798162961e-05</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>2.669453528061e-05</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_sf6_per_tonne_production_electronics</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.66332176734634e-08</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.982696111815686e-08</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3.638875512227273e-08</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.606106259874343e-08</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.455478824880985e-08</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3.888212028155303e-08</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3.687091113056565e-08</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3.687091113056565e-08</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3.687091113056565e-08</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.687091113056565e-08</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3.687091113056565e-08</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3.554355832986529e-08</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.421620552916492e-08</v>
+      </c>
+      <c r="W41" t="n">
+        <v>3.288885272846456e-08</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3.156149992776419e-08</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>3.023414712706384e-08</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>2.890679432636347e-08</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>2.75794415256631e-08</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>2.625208872496274e-08</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2.492473592426238e-08</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>2.359738312356202e-08</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>2.227003032286166e-08</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>2.094267752216129e-08</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1.961532472146093e-08</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.828797192076056e-08</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1.69606191200602e-08</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.563326631935983e-08</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.430591351865947e-08</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.297856071795911e-08</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.165120791725875e-08</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.032385511655838e-08</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>8.99650231585802e-09</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>7.669149515157655e-09</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>6.341796714457291e-09</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>5.01444391375693e-09</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>3.687091113056565e-09</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ef_ippu_tonne_sf6_per_tonne_production_metals</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.403871397509159e-07</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.57287974390955e-07</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.617559285644768e-07</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.60851801196426e-07</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.636646852855645e-07</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.862773955000822e-07</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.655788686432534e-07</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.655788686432534e-07</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.655788686432534e-07</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.655788686432534e-07</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.655788686432534e-07</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.596180293720963e-07</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.536571901009392e-07</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.476963508297821e-07</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.417355115586249e-07</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.357746722874678e-07</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.298138330163107e-07</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1.238529937451536e-07</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.178921544739964e-07</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.119313152028393e-07</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1.059704759316822e-07</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.000096366605251e-07</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>9.404879738936796e-08</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>8.808795811821084e-08</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>8.212711884705371e-08</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>7.616627957589659e-08</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>7.020544030473946e-08</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>6.424460103358233e-08</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>5.828376176242522e-08</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>5.232292249126809e-08</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>4.636208322011096e-08</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>4.040124394895384e-08</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>3.444040467779672e-08</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>2.847956540663959e-08</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>2.251872613548248e-08</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1.655788686432535e-08</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>frac_ippu_cement_clinker</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.7300000000000001</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>frac_ippu_production_with_co2_capture_cement</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.4480000000000001</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.6080000000000001</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.6400000000000001</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.7040000000000001</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.7360000000000001</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>frac_ippu_production_with_co2_capture_chemicals</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.4480000000000001</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.6080000000000001</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.6400000000000001</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.7040000000000001</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.7360000000000001</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>frac_ippu_production_with_co2_capture_metals</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0.4480000000000001</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0.6080000000000001</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0.6400000000000001</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0.7040000000000001</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0.7360000000000001</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>IPPU</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>frac_ippu_production_with_co2_capture_plastic</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0.4480000000000001</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0.6080000000000001</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0.6400000000000001</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0.7040000000000001</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0.7360000000000001</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ref/ingestion/calibrated/mexico/model_input_variables_mexico_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/mexico/model_input_variables_mexico_ip_calibrated.xlsx
@@ -450,22 +450,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>variable_trajectory_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>normalize_group</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>trajgroup_no_vary_q</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>uniform_scaling_q</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>variable_trajectory_group</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -24990,22 +24990,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>variable_trajectory_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>normalize_group</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>trajgroup_no_vary_q</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>uniform_scaling_q</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>variable_trajectory_group</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -25295,22 +25295,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>variable_trajectory_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>normalize_group</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>trajgroup_no_vary_q</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>uniform_scaling_q</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>variable_trajectory_group</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -31364,22 +31364,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>variable_trajectory_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>normalize_group</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>trajgroup_no_vary_q</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>uniform_scaling_q</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>variable_trajectory_group</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -37564,22 +37564,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>variable_trajectory_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>normalize_group</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>trajgroup_no_vary_q</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>uniform_scaling_q</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>variable_trajectory_group</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
